--- a/fuentes/contenidos/grado10/guion16/SolicitudGrafica_CN_10_16_CO_REC_30.xlsx
+++ b/fuentes/contenidos/grado10/guion16/SolicitudGrafica_CN_10_16_CO_REC_30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Dropbox\RECURSOS_CN_10_16_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -1913,53 +1913,6 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1743075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13716000" y="4429125"/>
-          <a:ext cx="1743075" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1975,7 +1928,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2022,7 +1975,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2069,7 +2022,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2116,7 +2069,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2163,7 +2116,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2210,7 +2163,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2226,6 +2179,53 @@
         <a:xfrm>
           <a:off x="13716000" y="8905875"/>
           <a:ext cx="2609850" cy="243205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2555875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>536575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="13 Imagen"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13747750" y="4508500"/>
+          <a:ext cx="2524125" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,8 +2957,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/fuentes/contenidos/grado10/guion16/SolicitudGrafica_CN_10_16_CO_REC_30.xlsx
+++ b/fuentes/contenidos/grado10/guion16/SolicitudGrafica_CN_10_16_CO_REC_30.xlsx
@@ -1960,53 +1960,6 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>277495</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6 Imagen"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13716000" y="5969000"/>
-          <a:ext cx="2371725" cy="277495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2022,7 +1975,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2069,7 +2022,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2116,7 +2069,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2163,7 +2116,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2210,7 +2163,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2226,6 +2179,53 @@
         <a:xfrm>
           <a:off x="13747750" y="4508500"/>
           <a:ext cx="2524125" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1911350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>512762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="11 Imagen"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14017625" y="6119812"/>
+          <a:ext cx="1609725" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,8 +2957,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
